--- a/cig2019/Assets/streamingAssets/Xlsxs/Shape.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/Shape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15000" windowHeight="8115"/>
+    <workbookView windowWidth="14685" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>编号</t>
   </si>
@@ -30,22 +30,7 @@
     <t>贴图ID</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>00000011000000000000000000000000</t>
-  </si>
-  <si>
-    <t>00000111011100111011011000111000</t>
-  </si>
-  <si>
-    <t>00000000000000000000000100000011</t>
-  </si>
-  <si>
-    <t>星空</t>
+    <t>星空1</t>
   </si>
   <si>
     <t>11111000111101001001111000001000</t>
@@ -60,24 +45,57 @@
     <t>00010000011110010010111100011111</t>
   </si>
   <si>
-    <t>三菱</t>
-  </si>
-  <si>
-    <t>00000000000000000000000000000000</t>
+    <t>星空2</t>
+  </si>
+  <si>
+    <t>11111000111111001001111100001000</t>
+  </si>
+  <si>
+    <t>00001000001100010111110000100000</t>
+  </si>
+  <si>
+    <t>00000100001111101000110000010000</t>
+  </si>
+  <si>
+    <t>00110000011111010010111100011111</t>
+  </si>
+  <si>
+    <t>星空3</t>
+  </si>
+  <si>
+    <t>11111000111111001001111100001010</t>
+  </si>
+  <si>
+    <t>00001000001100010111110000101000</t>
+  </si>
+  <si>
+    <t>00000100001111101000111000010000</t>
+  </si>
+  <si>
+    <t>01110000011111010010111100011111</t>
+  </si>
+  <si>
+    <t>星空4</t>
+  </si>
+  <si>
+    <t>11111100111111001001111100001010</t>
+  </si>
+  <si>
+    <t>00001000001100010111111000101000</t>
+  </si>
+  <si>
+    <t>00000100011111101000111000010000</t>
+  </si>
+  <si>
+    <t>01110000011111010011111100011111</t>
+  </si>
+  <si>
+    <t>草花1</t>
   </si>
   <si>
     <t>11100000000000000000000000000000</t>
   </si>
   <si>
-    <t>11000000100000000000000000000000</t>
-  </si>
-  <si>
-    <t>01111111110010011110111011011000</t>
-  </si>
-  <si>
-    <t>草花</t>
-  </si>
-  <si>
     <t>00111111000111110000000000000000</t>
   </si>
   <si>
@@ -87,7 +105,37 @@
     <t>00000000000000010001111100111111</t>
   </si>
   <si>
-    <t>猪鼻</t>
+    <t>草花2</t>
+  </si>
+  <si>
+    <t>11100000100000000000000000000000</t>
+  </si>
+  <si>
+    <t>00111111001111110000000000000000</t>
+  </si>
+  <si>
+    <t>草花3</t>
+  </si>
+  <si>
+    <t>00111111001111110000100000000000</t>
+  </si>
+  <si>
+    <t>01110000111100011111110011111000</t>
+  </si>
+  <si>
+    <t>00000000000100010001111100111111</t>
+  </si>
+  <si>
+    <t>草花4</t>
+  </si>
+  <si>
+    <t>01110000111100111111110011111000</t>
+  </si>
+  <si>
+    <t>00000000000110010001111100111111</t>
+  </si>
+  <si>
+    <t>猪鼻1</t>
   </si>
   <si>
     <t>10110000011000001000000000000000</t>
@@ -102,7 +150,34 @@
     <t>00000000000000000001111100000111</t>
   </si>
   <si>
-    <t>蜘蛛侠</t>
+    <t>猪鼻2</t>
+  </si>
+  <si>
+    <t>10110000111000001000000000000000</t>
+  </si>
+  <si>
+    <t>00011011001111110011111100000000</t>
+  </si>
+  <si>
+    <t>猪鼻3</t>
+  </si>
+  <si>
+    <t>10111000111000001000000000000000</t>
+  </si>
+  <si>
+    <t>00111011001111110011111100001000</t>
+  </si>
+  <si>
+    <t>猪鼻4</t>
+  </si>
+  <si>
+    <t>00000000000000000101111111111000</t>
+  </si>
+  <si>
+    <t>00000000000000000001111100001111</t>
+  </si>
+  <si>
+    <t>蜘蛛侠1</t>
   </si>
   <si>
     <t>01100000100000000000000000000000</t>
@@ -117,7 +192,34 @@
     <t>00000000000000000000011100011011</t>
   </si>
   <si>
-    <t>病原体</t>
+    <t>蜘蛛侠2</t>
+  </si>
+  <si>
+    <t>00110111001111110111111100000000</t>
+  </si>
+  <si>
+    <t>蜘蛛侠3</t>
+  </si>
+  <si>
+    <t>00000000010000001111000011110000</t>
+  </si>
+  <si>
+    <t>00000000000000000000011100011111</t>
+  </si>
+  <si>
+    <t>蜘蛛侠4</t>
+  </si>
+  <si>
+    <t>00110111001111110111111100101000</t>
+  </si>
+  <si>
+    <t>00000000010100001111000011110000</t>
+  </si>
+  <si>
+    <t>00000000000000010000011100011111</t>
+  </si>
+  <si>
+    <t>病原体1</t>
   </si>
   <si>
     <t>11100000110000000000000000000000</t>
@@ -130,6 +232,33 @@
   </si>
   <si>
     <t>00000000000000000000001100000111</t>
+  </si>
+  <si>
+    <t>病原体2</t>
+  </si>
+  <si>
+    <t>00000000010000001111000011100000</t>
+  </si>
+  <si>
+    <t>00000000000000000000011100001111</t>
+  </si>
+  <si>
+    <t>病原体3</t>
+  </si>
+  <si>
+    <t>00111111011111110110001100000000</t>
+  </si>
+  <si>
+    <t>病原体4</t>
+  </si>
+  <si>
+    <t>00111111011111110111001100000000</t>
+  </si>
+  <si>
+    <t>00000000010000001111000011111000</t>
+  </si>
+  <si>
+    <t>00000000000000000000111100011111</t>
   </si>
 </sst>
 </file>
@@ -137,12 +266,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,12 +283,66 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,21 +356,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,8 +400,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,68 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -285,22 +423,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,25 +433,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,157 +565,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,48 +630,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -597,8 +678,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,148 +729,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,16 +1229,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="7.625" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1201,16 +1324,16 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1218,19 +1341,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1238,19 +1361,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1258,19 +1381,279 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/cig2019/Assets/streamingAssets/Xlsxs/Shape.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/Shape.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="8115"/>
+    <workbookView windowWidth="20475" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>编号</t>
   </si>
@@ -30,12 +30,138 @@
     <t>贴图ID</t>
   </si>
   <si>
+    <t>猪鼻1</t>
+  </si>
+  <si>
+    <t>10110000011000001000000000000000</t>
+  </si>
+  <si>
+    <t>00011011001101110011111100000000</t>
+  </si>
+  <si>
+    <t>00000000000000000001111111110000</t>
+  </si>
+  <si>
+    <t>00000000000000000001111100000111</t>
+  </si>
+  <si>
+    <t>猪鼻2</t>
+  </si>
+  <si>
+    <t>10110000111000001000000000000000</t>
+  </si>
+  <si>
+    <t>00011011001111110011111100000000</t>
+  </si>
+  <si>
+    <t>猪鼻3</t>
+  </si>
+  <si>
+    <t>10111000111000001000000000000000</t>
+  </si>
+  <si>
+    <t>00111011001111110011111100001000</t>
+  </si>
+  <si>
+    <t>猪鼻4</t>
+  </si>
+  <si>
+    <t>00000000000000000101111111111000</t>
+  </si>
+  <si>
+    <t>00000000000000000001111100001111</t>
+  </si>
+  <si>
+    <t>草花1</t>
+  </si>
+  <si>
+    <t>11100000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>00111111000111110000000000000000</t>
+  </si>
+  <si>
+    <t>01110000111100001111110011111000</t>
+  </si>
+  <si>
+    <t>00000000000000010001111100111111</t>
+  </si>
+  <si>
+    <t>草花2</t>
+  </si>
+  <si>
+    <t>11100000100000000000000000000000</t>
+  </si>
+  <si>
+    <t>00111111001111110000000000000000</t>
+  </si>
+  <si>
+    <t>草花3</t>
+  </si>
+  <si>
+    <t>00111111001111110000100000000000</t>
+  </si>
+  <si>
+    <t>01110000111100011111110011111000</t>
+  </si>
+  <si>
+    <t>00000000000100010001111100111111</t>
+  </si>
+  <si>
+    <t>草花4</t>
+  </si>
+  <si>
+    <t>01110000111100111111110011111000</t>
+  </si>
+  <si>
+    <t>00000000000110010001111100111111</t>
+  </si>
+  <si>
+    <t>蜘蛛侠1</t>
+  </si>
+  <si>
+    <t>01100000100000000000000000000000</t>
+  </si>
+  <si>
+    <t>00110111001111110011111000000000</t>
+  </si>
+  <si>
+    <t>00000000000000001111000010110000</t>
+  </si>
+  <si>
+    <t>00000000000000000000011100011011</t>
+  </si>
+  <si>
+    <t>蜘蛛侠2</t>
+  </si>
+  <si>
+    <t>00110111001111110111111100000000</t>
+  </si>
+  <si>
+    <t>蜘蛛侠3</t>
+  </si>
+  <si>
+    <t>00000000010000001111000011110000</t>
+  </si>
+  <si>
+    <t>00000000000000000000011100011111</t>
+  </si>
+  <si>
+    <t>蜘蛛侠4</t>
+  </si>
+  <si>
+    <t>00110111001111110111111100101000</t>
+  </si>
+  <si>
+    <t>00000000010100001111000011110000</t>
+  </si>
+  <si>
+    <t>00000000000000010000011100011111</t>
+  </si>
+  <si>
     <t>星空1</t>
   </si>
   <si>
-    <t>11111000111101001001111000001000</t>
-  </si>
-  <si>
     <t>00001000000100010111100000100000</t>
   </si>
   <si>
@@ -88,135 +214,6 @@
   </si>
   <si>
     <t>01110000011111010011111100011111</t>
-  </si>
-  <si>
-    <t>草花1</t>
-  </si>
-  <si>
-    <t>11100000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>00111111000111110000000000000000</t>
-  </si>
-  <si>
-    <t>01110000111100001111110011111000</t>
-  </si>
-  <si>
-    <t>00000000000000010001111100111111</t>
-  </si>
-  <si>
-    <t>草花2</t>
-  </si>
-  <si>
-    <t>11100000100000000000000000000000</t>
-  </si>
-  <si>
-    <t>00111111001111110000000000000000</t>
-  </si>
-  <si>
-    <t>草花3</t>
-  </si>
-  <si>
-    <t>00111111001111110000100000000000</t>
-  </si>
-  <si>
-    <t>01110000111100011111110011111000</t>
-  </si>
-  <si>
-    <t>00000000000100010001111100111111</t>
-  </si>
-  <si>
-    <t>草花4</t>
-  </si>
-  <si>
-    <t>01110000111100111111110011111000</t>
-  </si>
-  <si>
-    <t>00000000000110010001111100111111</t>
-  </si>
-  <si>
-    <t>猪鼻1</t>
-  </si>
-  <si>
-    <t>10110000011000001000000000000000</t>
-  </si>
-  <si>
-    <t>00011011001101110011111100000000</t>
-  </si>
-  <si>
-    <t>00000000000000000001111111110000</t>
-  </si>
-  <si>
-    <t>00000000000000000001111100000111</t>
-  </si>
-  <si>
-    <t>猪鼻2</t>
-  </si>
-  <si>
-    <t>10110000111000001000000000000000</t>
-  </si>
-  <si>
-    <t>00011011001111110011111100000000</t>
-  </si>
-  <si>
-    <t>猪鼻3</t>
-  </si>
-  <si>
-    <t>10111000111000001000000000000000</t>
-  </si>
-  <si>
-    <t>00111011001111110011111100001000</t>
-  </si>
-  <si>
-    <t>猪鼻4</t>
-  </si>
-  <si>
-    <t>00000000000000000101111111111000</t>
-  </si>
-  <si>
-    <t>00000000000000000001111100001111</t>
-  </si>
-  <si>
-    <t>蜘蛛侠1</t>
-  </si>
-  <si>
-    <t>01100000100000000000000000000000</t>
-  </si>
-  <si>
-    <t>00110111001111110011111000000000</t>
-  </si>
-  <si>
-    <t>00000000000000001111000010110000</t>
-  </si>
-  <si>
-    <t>00000000000000000000011100011011</t>
-  </si>
-  <si>
-    <t>蜘蛛侠2</t>
-  </si>
-  <si>
-    <t>00110111001111110111111100000000</t>
-  </si>
-  <si>
-    <t>蜘蛛侠3</t>
-  </si>
-  <si>
-    <t>00000000010000001111000011110000</t>
-  </si>
-  <si>
-    <t>00000000000000000000011100011111</t>
-  </si>
-  <si>
-    <t>蜘蛛侠4</t>
-  </si>
-  <si>
-    <t>00110111001111110111111100101000</t>
-  </si>
-  <si>
-    <t>00000000010100001111000011110000</t>
-  </si>
-  <si>
-    <t>00000000000000010000011100011111</t>
   </si>
   <si>
     <t>病原体1</t>
@@ -267,9 +264,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -281,6 +278,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -288,7 +292,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,8 +398,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,112 +420,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -433,13 +430,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,169 +550,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,11 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,21 +649,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -684,27 +672,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -724,6 +695,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -732,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,7 +1229,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1290,370 +1287,370 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
